--- a/artfynd/A 69612-2021.xlsx
+++ b/artfynd/A 69612-2021.xlsx
@@ -683,7 +683,7 @@
         <v>112299152</v>
       </c>
       <c r="B2" t="n">
-        <v>90155</v>
+        <v>90169</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
